--- a/explainable_low_disc/val/discriminated_instances.xlsx
+++ b/explainable_low_disc/val/discriminated_instances.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>122</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>143</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>205</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>217</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>235</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>245</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9">
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>409</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>418</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11">
@@ -516,7 +516,55 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>420</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
